--- a/data/trans_orig/P05A02-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>380384</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>360908</v>
+        <v>362171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>398387</v>
+        <v>396382</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8056395052405693</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.764390176784754</v>
+        <v>0.7670651193682551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8437678067576355</v>
+        <v>0.8395226510710687</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>226</v>
@@ -765,19 +765,19 @@
         <v>232948</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>217411</v>
+        <v>217357</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>247054</v>
+        <v>247779</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7595813933594667</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7089170350776355</v>
+        <v>0.7087430144904362</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8055771348133886</v>
+        <v>0.8079396173116179</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>592</v>
@@ -786,19 +786,19 @@
         <v>613333</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>591142</v>
+        <v>588374</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>634490</v>
+        <v>635723</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7875032204911444</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7590106473343383</v>
+        <v>0.755457383183243</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8146689325593648</v>
+        <v>0.8162511962135089</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>82751</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65314</v>
+        <v>67202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101493</v>
+        <v>99888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1752627526259014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1383326325251256</v>
+        <v>0.1423302325890521</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2149592383614983</v>
+        <v>0.2115598264806233</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -836,19 +836,19 @@
         <v>56559</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43390</v>
+        <v>42442</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70803</v>
+        <v>70410</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1844241988443029</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.141482036952076</v>
+        <v>0.1383910045470368</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2308705259787935</v>
+        <v>0.2295885884773191</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>132</v>
@@ -857,19 +857,19 @@
         <v>139310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>120008</v>
+        <v>118989</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162780</v>
+        <v>162132</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1788702517296943</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.154087547174352</v>
+        <v>0.1527783757635141</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2090047708795673</v>
+        <v>0.2081731097946193</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>9017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4106</v>
+        <v>3904</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16497</v>
+        <v>16414</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01909774213352933</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008696540440534922</v>
+        <v>0.008268604861869788</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03494015169018735</v>
+        <v>0.03476390798334297</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -907,19 +907,19 @@
         <v>17172</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10158</v>
+        <v>10196</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26163</v>
+        <v>26738</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05599440779623036</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03312248776838192</v>
+        <v>0.03324647041852188</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08531068494297221</v>
+        <v>0.08718509411259646</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -928,19 +928,19 @@
         <v>26189</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17317</v>
+        <v>17102</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37697</v>
+        <v>37457</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03362652777916122</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02223441304243311</v>
+        <v>0.02195909167528411</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04840258714803516</v>
+        <v>0.04809404525347508</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>281368</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>262648</v>
+        <v>264297</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>295715</v>
+        <v>296827</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7706909346804705</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7194149513720947</v>
+        <v>0.7239331863188027</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8099891889752541</v>
+        <v>0.8130348923200047</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>286</v>
@@ -1053,19 +1053,19 @@
         <v>290430</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>272313</v>
+        <v>274550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>303876</v>
+        <v>305932</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7850829079591339</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7361082120249016</v>
+        <v>0.7421564980045289</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8214293770206409</v>
+        <v>0.826986767599007</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>552</v>
@@ -1074,19 +1074,19 @@
         <v>571798</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>546238</v>
+        <v>547760</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>592962</v>
+        <v>593931</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7779344129773316</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7431600296399916</v>
+        <v>0.7452308937062877</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8067282430458523</v>
+        <v>0.8080467886875512</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>70388</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>56664</v>
+        <v>57411</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>87561</v>
+        <v>88199</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1928001922569714</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1552083945803048</v>
+        <v>0.1572542982883344</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2398384652495656</v>
+        <v>0.2415840907184641</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>60</v>
@@ -1124,19 +1124,19 @@
         <v>63417</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50617</v>
+        <v>50150</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>79947</v>
+        <v>78480</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1714273435386503</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1368272523989323</v>
+        <v>0.1355643230641387</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2161105869184069</v>
+        <v>0.2121453802717521</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>130</v>
@@ -1145,19 +1145,19 @@
         <v>133806</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>114501</v>
+        <v>111809</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>158447</v>
+        <v>156547</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1820432402507605</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1557798298605695</v>
+        <v>0.1521168502378811</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2155684225282393</v>
+        <v>0.2129824351429151</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>13329</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7833</v>
+        <v>7354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22665</v>
+        <v>21671</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0365088730625581</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02145419081807425</v>
+        <v>0.02014301613478546</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06208189138141616</v>
+        <v>0.05935890499053498</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1195,19 +1195,19 @@
         <v>16088</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9770</v>
+        <v>8816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25795</v>
+        <v>25431</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04348974850221571</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02641113334348984</v>
+        <v>0.02383143846151057</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06972956485393605</v>
+        <v>0.06874507212532044</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -1216,19 +1216,19 @@
         <v>29417</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20090</v>
+        <v>20353</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41478</v>
+        <v>42376</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04002234677190798</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02733221067942919</v>
+        <v>0.02769009822656981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05643064627552724</v>
+        <v>0.05765223283273818</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>425991</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>407215</v>
+        <v>408271</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>445534</v>
+        <v>444574</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7867152833236185</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7520407915323385</v>
+        <v>0.7539913249043855</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8228086291532284</v>
+        <v>0.8210346681981288</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>121</v>
@@ -1341,19 +1341,19 @@
         <v>123059</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>109335</v>
+        <v>110580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>133956</v>
+        <v>134088</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7334479743190124</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6516515448461331</v>
+        <v>0.659066572708257</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7983906790922509</v>
+        <v>0.7991795116088154</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>541</v>
@@ -1362,19 +1362,19 @@
         <v>549050</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>528717</v>
+        <v>525453</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>573061</v>
+        <v>570071</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7741144507567372</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7454459957959896</v>
+        <v>0.7408440845813512</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8079674198290498</v>
+        <v>0.8037517297544228</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>93889</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77448</v>
+        <v>76079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112174</v>
+        <v>110553</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1733933751645175</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1430308006315962</v>
+        <v>0.1405023935490454</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.207162522395332</v>
+        <v>0.2041675763919615</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -1412,19 +1412,19 @@
         <v>35386</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25337</v>
+        <v>25489</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47046</v>
+        <v>48260</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2109069611414451</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1510119481830676</v>
+        <v>0.1519145003614092</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2803988408358302</v>
+        <v>0.2876343160378108</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>125</v>
@@ -1433,19 +1433,19 @@
         <v>129275</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106925</v>
+        <v>109428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148977</v>
+        <v>151251</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.182267531278499</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.150755711738867</v>
+        <v>0.1542845878952038</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2100444467979829</v>
+        <v>0.2132514313584089</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>21600</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13405</v>
+        <v>13045</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>32233</v>
+        <v>32735</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03989134151186406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02475631223840888</v>
+        <v>0.02409113961895278</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05952810792516672</v>
+        <v>0.06045500984380871</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1483,19 +1483,19 @@
         <v>9336</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4202</v>
+        <v>4856</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16198</v>
+        <v>16649</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05564506453954252</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02504594234089096</v>
+        <v>0.02894043679635488</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09654378306683714</v>
+        <v>0.099228936925193</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -1504,19 +1504,19 @@
         <v>30937</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>21615</v>
+        <v>21023</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43946</v>
+        <v>43782</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04361801796476376</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03047549406768782</v>
+        <v>0.02964125783433973</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06196025434217961</v>
+        <v>0.06172943371945046</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>937993</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>908035</v>
+        <v>904670</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>967114</v>
+        <v>965379</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.758565821578784</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7343379232014725</v>
+        <v>0.7316168954139475</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7821158995266967</v>
+        <v>0.7807127324902946</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>513</v>
@@ -1629,19 +1629,19 @@
         <v>530498</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>507285</v>
+        <v>507408</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>553869</v>
+        <v>552819</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7446918649319317</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7121069999740675</v>
+        <v>0.7122790140822143</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7775001802377103</v>
+        <v>0.7760257721370233</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1439</v>
@@ -1650,19 +1650,19 @@
         <v>1468490</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1428972</v>
+        <v>1431633</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1504296</v>
+        <v>1507537</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.753494559527731</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7332174767212716</v>
+        <v>0.7345827962714246</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7718669168894128</v>
+        <v>0.773529685370104</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>263626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>234415</v>
+        <v>236095</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>292661</v>
+        <v>294235</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2131977557873816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1895743655502565</v>
+        <v>0.190933131035007</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2366780586230154</v>
+        <v>0.2379511002194821</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>144</v>
@@ -1700,19 +1700,19 @@
         <v>146402</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>126501</v>
+        <v>126210</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168847</v>
+        <v>168265</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2055140929473517</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1775766706100041</v>
+        <v>0.1771684708390464</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2370202353053975</v>
+        <v>0.2362043287663837</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>405</v>
@@ -1721,19 +1721,19 @@
         <v>410029</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>373451</v>
+        <v>375826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>446445</v>
+        <v>446806</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.210389193762462</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1916205903818489</v>
+        <v>0.1928396936618575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2290746239847397</v>
+        <v>0.2292596467140363</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>34915</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24530</v>
+        <v>24873</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47318</v>
+        <v>48120</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02823642263383436</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01983790685552458</v>
+        <v>0.0201149103349321</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03826700744730428</v>
+        <v>0.03891481132909173</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -1771,19 +1771,19 @@
         <v>35472</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25380</v>
+        <v>25666</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48185</v>
+        <v>48947</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04979404212071654</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03562726101631537</v>
+        <v>0.03602941607078476</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06764079785924511</v>
+        <v>0.06871052609413611</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>70</v>
@@ -1792,19 +1792,19 @@
         <v>70387</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53702</v>
+        <v>55515</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>88061</v>
+        <v>88998</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03611624670980701</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02755475891514571</v>
+        <v>0.02848503424316269</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0451850580966018</v>
+        <v>0.04566558638264855</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>273076</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255478</v>
+        <v>256410</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287505</v>
+        <v>287034</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7833021342503994</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7328231242660742</v>
+        <v>0.7354966297974004</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8246891311994512</v>
+        <v>0.8233390273646169</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>389</v>
@@ -1917,19 +1917,19 @@
         <v>411783</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>389684</v>
+        <v>390010</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>432270</v>
+        <v>433964</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7253713825643542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6864432355081962</v>
+        <v>0.6870176465528166</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.761460028677809</v>
+        <v>0.7644442113406905</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>651</v>
@@ -1938,19 +1938,19 @@
         <v>684860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>658853</v>
+        <v>657616</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>711907</v>
+        <v>711450</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7474119310357903</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7190297419666107</v>
+        <v>0.7176802322647639</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7769297757014222</v>
+        <v>0.7764310065866254</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>67423</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54285</v>
+        <v>53976</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>84367</v>
+        <v>83747</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1933975221226926</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1557142802715317</v>
+        <v>0.1548253990368691</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2420001264127839</v>
+        <v>0.2402221908097708</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>122</v>
@@ -1988,19 +1988,19 @@
         <v>126039</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>107658</v>
+        <v>104980</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>147516</v>
+        <v>144839</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2220229587978051</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1896442140949018</v>
+        <v>0.1849262950707946</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.259855678984474</v>
+        <v>0.2551399556521295</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>189</v>
@@ -2009,19 +2009,19 @@
         <v>193462</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>167734</v>
+        <v>167085</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>218058</v>
+        <v>219547</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2111320190776871</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1830545636680154</v>
+        <v>0.1823462726691153</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.237974030468261</v>
+        <v>0.2395999344937438</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>8123</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3655</v>
+        <v>3723</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14773</v>
+        <v>15556</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02330034362690804</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01048353964823053</v>
+        <v>0.01067872268754516</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04237676085340519</v>
+        <v>0.04462178466523961</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -2059,19 +2059,19 @@
         <v>29863</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20876</v>
+        <v>19809</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43908</v>
+        <v>43160</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05260565863784069</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03677441539016632</v>
+        <v>0.03489410305196693</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07734474507013947</v>
+        <v>0.07602779640102972</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -2080,19 +2080,19 @@
         <v>37987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26899</v>
+        <v>27579</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51880</v>
+        <v>51489</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04145604988652259</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02935558901953387</v>
+        <v>0.03009815317536093</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0566180893912641</v>
+        <v>0.0561921054917622</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>255439</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>242292</v>
+        <v>242914</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>264777</v>
+        <v>266319</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8590137825364982</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.814802085500051</v>
+        <v>0.8168937967088009</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8904166394823385</v>
+        <v>0.8956033084848984</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>915</v>
@@ -2205,19 +2205,19 @@
         <v>918039</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>889095</v>
+        <v>887118</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>947974</v>
+        <v>950250</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7357468492773892</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7125497824501126</v>
+        <v>0.7109653309971793</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7597376674422106</v>
+        <v>0.7615613167611454</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1175</v>
@@ -2226,19 +2226,19 @@
         <v>1173479</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1134697</v>
+        <v>1139451</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1202425</v>
+        <v>1206828</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7594698346101637</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7343702627403719</v>
+        <v>0.7374469832796797</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7782035971145675</v>
+        <v>0.7810533245974012</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>34230</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25267</v>
+        <v>24480</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45824</v>
+        <v>45827</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1151111426230539</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08497016872979561</v>
+        <v>0.08232279908352681</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1541005669079761</v>
+        <v>0.1541101623337627</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>244</v>
@@ -2276,19 +2276,19 @@
         <v>249177</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>221771</v>
+        <v>221303</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>275660</v>
+        <v>278804</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1996983839689364</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1777349642133219</v>
+        <v>0.1773596093861339</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2209229371728344</v>
+        <v>0.2234430794691346</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>281</v>
@@ -2297,19 +2297,19 @@
         <v>283407</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>255702</v>
+        <v>254490</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>316106</v>
+        <v>313814</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.183419388193401</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1654891405416322</v>
+        <v>0.1647048463885567</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2045822775316882</v>
+        <v>0.2030989392319827</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>7694</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3607</v>
+        <v>3463</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15988</v>
+        <v>15249</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02587507484044789</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01212895777190741</v>
+        <v>0.01164523143182901</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05376663069668559</v>
+        <v>0.05128033662712845</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>78</v>
@@ -2347,19 +2347,19 @@
         <v>80549</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65948</v>
+        <v>63886</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>101436</v>
+        <v>99243</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06455476675367446</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05285262283176766</v>
+        <v>0.05119997256276575</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08129421579561809</v>
+        <v>0.07953630535264097</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>86</v>
@@ -2368,19 +2368,19 @@
         <v>88244</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>72774</v>
+        <v>69948</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>110536</v>
+        <v>107276</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05711077719643524</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04709885784074667</v>
+        <v>0.04526969553112949</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07153868256570323</v>
+        <v>0.06942870843954015</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>2554251</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2504718</v>
+        <v>2505264</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2600838</v>
+        <v>2600619</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7832154125678783</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7680269016570569</v>
+        <v>0.768194258791663</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7975003998947189</v>
+        <v>0.7974332909167715</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2450</v>
@@ -2493,19 +2493,19 @@
         <v>2506759</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2459137</v>
+        <v>2452407</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2558956</v>
+        <v>2552780</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7433552529938089</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7292333364971916</v>
+        <v>0.7272378534420092</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7588336530733842</v>
+        <v>0.7570023742086904</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4950</v>
@@ -2514,19 +2514,19 @@
         <v>5061010</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4998759</v>
+        <v>4994443</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5134939</v>
+        <v>5133802</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.762951881179328</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7535674911302879</v>
+        <v>0.7529167953971538</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7740967174869703</v>
+        <v>0.7739253455455662</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>612307</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>568431</v>
+        <v>569846</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>660939</v>
+        <v>660430</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1877530035814176</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.174299077377979</v>
+        <v>0.1747332343398485</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2026651925724066</v>
+        <v>0.202508914958783</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>658</v>
@@ -2564,19 +2564,19 @@
         <v>676981</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>631345</v>
+        <v>633116</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>723638</v>
+        <v>724509</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2007523278039135</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1872191688489679</v>
+        <v>0.1877444098697931</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2145879534334229</v>
+        <v>0.2148461430459365</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1262</v>
@@ -2585,19 +2585,19 @@
         <v>1289288</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1224431</v>
+        <v>1226222</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1352059</v>
+        <v>1353783</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1943614120079571</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1845841046887338</v>
+        <v>0.1848540521643861</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2038241126649742</v>
+        <v>0.2040839807553073</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>94679</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>75715</v>
+        <v>75884</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>115959</v>
+        <v>114824</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0290315838507041</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02321677343528636</v>
+        <v>0.02326855884125701</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03555660548097928</v>
+        <v>0.03520881883347985</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>182</v>
@@ -2635,19 +2635,19 @@
         <v>188482</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>162325</v>
+        <v>163373</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>217568</v>
+        <v>217074</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05589241920227766</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04813599367498132</v>
+        <v>0.04844667135281187</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06451756936383524</v>
+        <v>0.06437112371144121</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>276</v>
@@ -2656,19 +2656,19 @@
         <v>283161</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>250078</v>
+        <v>250426</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>316218</v>
+        <v>317577</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04268670681271498</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03769945704813046</v>
+        <v>0.03775202066305978</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04767018993514171</v>
+        <v>0.0478750938119657</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>374395</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>358295</v>
+        <v>357550</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>388063</v>
+        <v>388166</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8563253275403031</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8195007184945632</v>
+        <v>0.8177971298214312</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8875866744993745</v>
+        <v>0.8878220591139893</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>235</v>
@@ -3023,19 +3023,19 @@
         <v>260015</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>244225</v>
+        <v>246198</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>273181</v>
+        <v>273735</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.832173444630506</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.781636920232709</v>
+        <v>0.7879527226453866</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8743109136339158</v>
+        <v>0.8760845003803416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>580</v>
@@ -3044,19 +3044,19 @@
         <v>634409</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>613976</v>
+        <v>613814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>658553</v>
+        <v>653160</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8462590456629119</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8190023184367555</v>
+        <v>0.8187861439697376</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8784651533674117</v>
+        <v>0.8712716149847028</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>45488</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34163</v>
+        <v>34370</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62022</v>
+        <v>60657</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1040402235473936</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07813925995669828</v>
+        <v>0.07861287291831567</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.141858755734715</v>
+        <v>0.1387373000670442</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -3094,19 +3094,19 @@
         <v>43596</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30453</v>
+        <v>30175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57781</v>
+        <v>56313</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1395290693025472</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09746501162737287</v>
+        <v>0.0965748109803143</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.184928034888635</v>
+        <v>0.1802294413913907</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -3115,19 +3115,19 @@
         <v>89084</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>71355</v>
+        <v>71207</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>109232</v>
+        <v>108550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1188316468997205</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09518319341210456</v>
+        <v>0.09498529110034894</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1457087365973179</v>
+        <v>0.1447983070619842</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>17329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10233</v>
+        <v>10335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26886</v>
+        <v>27686</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03963444891230328</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02340591313607931</v>
+        <v>0.0236390483372079</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06149345567219067</v>
+        <v>0.06332403458379801</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -3165,19 +3165,19 @@
         <v>8842</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3918</v>
+        <v>3973</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16176</v>
+        <v>15968</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02829748606694677</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01254072472129645</v>
+        <v>0.01271633620156842</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05177163568751626</v>
+        <v>0.05110482131148194</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>26</v>
@@ -3186,19 +3186,19 @@
         <v>26170</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17475</v>
+        <v>17243</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38432</v>
+        <v>37571</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03490930743736769</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02331050648168268</v>
+        <v>0.02300037757407506</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05126540509452188</v>
+        <v>0.05011656718083547</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>342801</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>325256</v>
+        <v>323503</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>359961</v>
+        <v>357643</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8222750993915019</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7801908893435068</v>
+        <v>0.7759858602490181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8634364974825655</v>
+        <v>0.8578772522002586</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>256</v>
@@ -3311,19 +3311,19 @@
         <v>282836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>267216</v>
+        <v>268452</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>295723</v>
+        <v>296204</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8460073974596597</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.79928400790313</v>
+        <v>0.8029805449266155</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8845540492194515</v>
+        <v>0.8859915955537215</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>565</v>
@@ -3332,19 +3332,19 @@
         <v>625636</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>604149</v>
+        <v>601521</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>645618</v>
+        <v>646499</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8328369125610325</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8042333410292428</v>
+        <v>0.8007351649108096</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8594361142855159</v>
+        <v>0.8606096369400317</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>65768</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49933</v>
+        <v>51171</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>82869</v>
+        <v>84102</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1577576583098143</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1197735263509164</v>
+        <v>0.1227444235500097</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1987770096832804</v>
+        <v>0.2017360269237239</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -3382,19 +3382,19 @@
         <v>43272</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31971</v>
+        <v>31595</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>56489</v>
+        <v>57588</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.129434054602434</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09563155652215423</v>
+        <v>0.09450550362233857</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1689677872985744</v>
+        <v>0.1722538301776683</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>97</v>
@@ -3403,19 +3403,19 @@
         <v>109040</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>90069</v>
+        <v>88522</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>131072</v>
+        <v>132863</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1451525321738608</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1198986552152639</v>
+        <v>0.1178395773697638</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1744806101286444</v>
+        <v>0.1768648827777509</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>8324</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4099</v>
+        <v>3824</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15884</v>
+        <v>16459</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01996724229868372</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009831433876451899</v>
+        <v>0.009171556167420637</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03810064475333778</v>
+        <v>0.03947984052414948</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3453,19 +3453,19 @@
         <v>8210</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3419</v>
+        <v>3582</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17025</v>
+        <v>18734</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02455854793790625</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01022528908686481</v>
+        <v>0.01071558541953971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05092454358410106</v>
+        <v>0.05603753751370798</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -3474,19 +3474,19 @@
         <v>16535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9420</v>
+        <v>8796</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26850</v>
+        <v>26343</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02201055526510665</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01254000335629102</v>
+        <v>0.01170911138439376</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03574194644290291</v>
+        <v>0.03506688099839473</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>537043</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>516987</v>
+        <v>517428</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>553134</v>
+        <v>552751</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8553385298022745</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8233961807334504</v>
+        <v>0.8240986962483147</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8809668269861713</v>
+        <v>0.8803568707675055</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>204</v>
@@ -3599,19 +3599,19 @@
         <v>218808</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>205026</v>
+        <v>205395</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>228810</v>
+        <v>229423</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8444407090364143</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7912515270397521</v>
+        <v>0.7926745187229821</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8830391055922948</v>
+        <v>0.8854059581636738</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>710</v>
@@ -3620,19 +3620,19 @@
         <v>755851</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>731552</v>
+        <v>733281</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>773476</v>
+        <v>776443</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8521549470123139</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.824760219298161</v>
+        <v>0.826708773376913</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8720251986533915</v>
+        <v>0.875370408711253</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>76047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62104</v>
+        <v>60151</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>96566</v>
+        <v>95343</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.121117976386887</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09891211687482236</v>
+        <v>0.09580069460137897</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1537996350894221</v>
+        <v>0.1518508859298184</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -3670,19 +3670,19 @@
         <v>31457</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22643</v>
+        <v>22522</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44668</v>
+        <v>42750</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1214025362529355</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08738419821990723</v>
+        <v>0.08691870682269506</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1723859647076871</v>
+        <v>0.1649837431195698</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>99</v>
@@ -3691,19 +3691,19 @@
         <v>107504</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>90065</v>
+        <v>88775</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129375</v>
+        <v>128154</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1212011049234751</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1015406342693684</v>
+        <v>0.1000854568436469</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1458584754027471</v>
+        <v>0.1444824954910314</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>14782</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8607</v>
+        <v>8166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23471</v>
+        <v>23878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02354349381083847</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01370774113284689</v>
+        <v>0.01300653626161057</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03738116598079459</v>
+        <v>0.03803053206802712</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -3741,19 +3741,19 @@
         <v>8851</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3980</v>
+        <v>4109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15661</v>
+        <v>16796</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03415675471065024</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01536030882170606</v>
+        <v>0.01585941049114208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06043933695076843</v>
+        <v>0.06481875510124784</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -3762,19 +3762,19 @@
         <v>23633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15281</v>
+        <v>15573</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34168</v>
+        <v>34440</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02664394806421099</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01722830290489209</v>
+        <v>0.01755772008442448</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03852132439976874</v>
+        <v>0.03882779672749491</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>977885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>948207</v>
+        <v>950861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>999861</v>
+        <v>1002819</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8488256760908305</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8230646558533543</v>
+        <v>0.8253686819401419</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8679016494558044</v>
+        <v>0.8704696147441404</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>583</v>
@@ -3887,19 +3887,19 @@
         <v>625513</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>601678</v>
+        <v>601643</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>646434</v>
+        <v>646047</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8181309636574591</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7869568002737539</v>
+        <v>0.7869105932939429</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8454952066202427</v>
+        <v>0.84498921945669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1502</v>
@@ -3908,19 +3908,19 @@
         <v>1603397</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1569396</v>
+        <v>1570632</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1636592</v>
+        <v>1635783</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8365811052552816</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8188407513250195</v>
+        <v>0.8194854886037494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8539005533925569</v>
+        <v>0.8534783843997786</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>137986</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116776</v>
+        <v>114830</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>163116</v>
+        <v>161233</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1197747059884288</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1013638763330468</v>
+        <v>0.09967539350452689</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.141588209627359</v>
+        <v>0.1399541509206313</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>97</v>
@@ -3958,19 +3958,19 @@
         <v>106068</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>88451</v>
+        <v>86998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>127185</v>
+        <v>128154</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1387304165558941</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1156882164426226</v>
+        <v>0.1137872591891211</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1663504207187086</v>
+        <v>0.1676170125158108</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>222</v>
@@ -3979,19 +3979,19 @@
         <v>244054</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>214278</v>
+        <v>213131</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>275700</v>
+        <v>274443</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1273364168624211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.111800447914616</v>
+        <v>0.1112023440259507</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1438477450039298</v>
+        <v>0.1431922780177563</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>36174</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25261</v>
+        <v>25400</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>51792</v>
+        <v>51430</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03139961792074066</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02192712473825173</v>
+        <v>0.02204788488770884</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04495693499616703</v>
+        <v>0.04464196495950425</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -4029,19 +4029,19 @@
         <v>32982</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22548</v>
+        <v>21984</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46844</v>
+        <v>45776</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04313861978664677</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02949085580390425</v>
+        <v>0.02875317901314819</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06126936489020842</v>
+        <v>0.05987215292383256</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>62</v>
@@ -4050,19 +4050,19 @@
         <v>69156</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>53631</v>
+        <v>53907</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>88606</v>
+        <v>88289</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03608247788229722</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02798250515513065</v>
+        <v>0.02812640184540726</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04623053670620983</v>
+        <v>0.04606552006649594</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>432468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>413521</v>
+        <v>416270</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>447313</v>
+        <v>448289</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8469869321421787</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.809879228709795</v>
+        <v>0.815262908594125</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8760604469766079</v>
+        <v>0.8779714684668306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>586</v>
@@ -4175,19 +4175,19 @@
         <v>634585</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>609449</v>
+        <v>611922</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>654240</v>
+        <v>654213</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.834359373119712</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8013097777810773</v>
+        <v>0.8045619405346042</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8602017615975747</v>
+        <v>0.8601663258031961</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>998</v>
@@ -4196,19 +4196,19 @@
         <v>1067054</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1037338</v>
+        <v>1038278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1093658</v>
+        <v>1091789</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8394315710289771</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8160545490553737</v>
+        <v>0.81679438759274</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8603609722385328</v>
+        <v>0.8588905512069518</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>70501</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>57097</v>
+        <v>55657</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>88706</v>
+        <v>85501</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1380755471447974</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1118248409089989</v>
+        <v>0.109004220419944</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1737311381121694</v>
+        <v>0.1674524852005067</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>91</v>
@@ -4246,19 +4246,19 @@
         <v>97504</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>79673</v>
+        <v>80590</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>118831</v>
+        <v>117963</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1281994129020541</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1047544867691374</v>
+        <v>0.1059607683508947</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1562397912809744</v>
+        <v>0.1550988928740777</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>159</v>
@@ -4267,19 +4267,19 @@
         <v>168005</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>143959</v>
+        <v>144462</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>193475</v>
+        <v>193240</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1321664272211746</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1132501021536472</v>
+        <v>0.1136458124644506</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1522029773098336</v>
+        <v>0.1520182308880467</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>7627</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3281</v>
+        <v>3298</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13711</v>
+        <v>14796</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01493752071302392</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006425208945469702</v>
+        <v>0.006458602401785482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02685237565285585</v>
+        <v>0.02897878176793601</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4317,19 +4317,19 @@
         <v>28477</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>19216</v>
+        <v>18311</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41548</v>
+        <v>41591</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03744121397823385</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02526555839774354</v>
+        <v>0.02407603977678146</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05462719187040515</v>
+        <v>0.05468375041668417</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -4338,19 +4338,19 @@
         <v>36104</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24456</v>
+        <v>25382</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49179</v>
+        <v>50968</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02840200174984835</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01923948184697663</v>
+        <v>0.01996766052883787</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03868806991704414</v>
+        <v>0.04009526943030012</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>227151</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>212785</v>
+        <v>213855</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>237453</v>
+        <v>237853</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.851129880591329</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7972980849850572</v>
+        <v>0.80130877209628</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8897316613656227</v>
+        <v>0.891227427882979</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>871</v>
@@ -4463,19 +4463,19 @@
         <v>925540</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>901322</v>
+        <v>898458</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>949909</v>
+        <v>949063</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8358592974220209</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8139874136006668</v>
+        <v>0.8114012005349414</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8578668268231546</v>
+        <v>0.8571028969346723</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1097</v>
@@ -4484,19 +4484,19 @@
         <v>1152692</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1122821</v>
+        <v>1123626</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1176592</v>
+        <v>1178139</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8388250368144984</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.817088160153149</v>
+        <v>0.8176739948982296</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8562177575378129</v>
+        <v>0.8573436814865097</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>37764</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28002</v>
+        <v>27276</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>51874</v>
+        <v>50872</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.141501394194555</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.104924068859701</v>
+        <v>0.1022012898617285</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1943712561762674</v>
+        <v>0.1906166880621412</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>139</v>
@@ -4534,19 +4534,19 @@
         <v>146359</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>124144</v>
+        <v>125484</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>168508</v>
+        <v>170859</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1321777446873006</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1121151821625471</v>
+        <v>0.1133253891620564</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1521804567376611</v>
+        <v>0.1543036289914996</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>176</v>
@@ -4555,19 +4555,19 @@
         <v>184124</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>159646</v>
+        <v>161586</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>210756</v>
+        <v>211825</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1339885147357487</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1161763147693834</v>
+        <v>0.1175877824715305</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1533690372172969</v>
+        <v>0.1541472276405464</v>
       </c>
     </row>
     <row r="26">
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6985</v>
+        <v>7840</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007368725214115925</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02617146539939006</v>
+        <v>0.02937578254020056</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -4605,19 +4605,19 @@
         <v>35392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>24236</v>
+        <v>24586</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>49485</v>
+        <v>48581</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03196295789067842</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02188769980177484</v>
+        <v>0.02220360304497951</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04469012903652797</v>
+        <v>0.04387336249401139</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>34</v>
@@ -4626,19 +4626,19 @@
         <v>37359</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25378</v>
+        <v>27243</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>51133</v>
+        <v>52881</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02718644844975296</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01846796859123248</v>
+        <v>0.01982523398443369</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03720971524183159</v>
+        <v>0.03848179711258292</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>2891743</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2847294</v>
+        <v>2846281</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2932358</v>
+        <v>2936296</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8476459949507074</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8346170375754072</v>
+        <v>0.8343200343566388</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8595514702609447</v>
+        <v>0.8607057190144316</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2735</v>
@@ -4751,19 +4751,19 @@
         <v>2947297</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2904860</v>
+        <v>2900011</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2991548</v>
+        <v>2994091</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8329679196313052</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8209742608931019</v>
+        <v>0.8196038865947399</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8454741013418268</v>
+        <v>0.8461927492750801</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5452</v>
@@ -4772,19 +4772,19 @@
         <v>5839040</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5775216</v>
+        <v>5777741</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5898963</v>
+        <v>5904541</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8401730444429499</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8309895297474943</v>
+        <v>0.8313528802388281</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8487953810892296</v>
+        <v>0.8495979255713338</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>433553</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>397721</v>
+        <v>392719</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>477733</v>
+        <v>473807</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1270857860692484</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1165824116652615</v>
+        <v>0.1151161997777738</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1400360511617384</v>
+        <v>0.1388854217771714</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>434</v>
@@ -4822,19 +4822,19 @@
         <v>468257</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>425497</v>
+        <v>426488</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>505735</v>
+        <v>515704</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1323393452432179</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1202545024990663</v>
+        <v>0.1205343218202153</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.142931368576033</v>
+        <v>0.145748617998408</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>832</v>
@@ -4843,19 +4843,19 @@
         <v>901810</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>844723</v>
+        <v>842557</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>963124</v>
+        <v>961682</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1297604955827467</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1215462672637367</v>
+        <v>0.1212346018417891</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.138582806260768</v>
+        <v>0.1383753572224909</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>86202</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>68045</v>
+        <v>68314</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>105055</v>
+        <v>107923</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02526821898004419</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01994587824266511</v>
+        <v>0.02002461375351609</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03079438763198774</v>
+        <v>0.03163499957330145</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>111</v>
@@ -4893,19 +4893,19 @@
         <v>122754</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>101701</v>
+        <v>100437</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>145804</v>
+        <v>145917</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03469273512547694</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02874287865062226</v>
+        <v>0.02838571396880748</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04120724710720513</v>
+        <v>0.04123927001936368</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>193</v>
@@ -4914,19 +4914,19 @@
         <v>208956</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>183677</v>
+        <v>179582</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>241706</v>
+        <v>240386</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03006645997430337</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0264290303271649</v>
+        <v>0.02583985376874893</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03477886207589469</v>
+        <v>0.03458887126848251</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>378503</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>362084</v>
+        <v>364957</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>391193</v>
+        <v>391995</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8843394490523167</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8459796783660209</v>
+        <v>0.8526923651137003</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9139887270731027</v>
+        <v>0.9158626475895716</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>281</v>
@@ -5281,19 +5281,19 @@
         <v>293388</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>280085</v>
+        <v>278331</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>306284</v>
+        <v>305173</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8504116043373465</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8118524392625627</v>
+        <v>0.8067667674790101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8877913930999497</v>
+        <v>0.8845709436668807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>630</v>
@@ -5302,19 +5302,19 @@
         <v>671890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>652621</v>
+        <v>652590</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>690352</v>
+        <v>691465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8691972572672513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.84426989972829</v>
+        <v>0.8442292366192574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8930808605531567</v>
+        <v>0.8945205311370318</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>42893</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>31796</v>
+        <v>30660</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58623</v>
+        <v>56899</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1002163647004663</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07428900811860627</v>
+        <v>0.07163393473822904</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1369678288332719</v>
+        <v>0.1329389569425061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -5352,19 +5352,19 @@
         <v>38289</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28163</v>
+        <v>27881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51671</v>
+        <v>51926</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1109828495020222</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08163414528686742</v>
+        <v>0.08081521941873442</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.149772617272583</v>
+        <v>0.1505135991998547</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -5373,19 +5373,19 @@
         <v>81182</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64670</v>
+        <v>65079</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98704</v>
+        <v>100900</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.105021508648918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.08366105299360328</v>
+        <v>0.08418994263124219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1276894843123272</v>
+        <v>0.1305303745048365</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>6610</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2813</v>
+        <v>2748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14569</v>
+        <v>14078</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0154441862472171</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006573471941300172</v>
+        <v>0.006421226139081755</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.034038178617069</v>
+        <v>0.03289126485278145</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -5423,19 +5423,19 @@
         <v>13319</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6904</v>
+        <v>7257</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22611</v>
+        <v>22400</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03860554616063129</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02001065963247139</v>
+        <v>0.02103384429939658</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06553968323570543</v>
+        <v>0.06492839697586054</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -5444,19 +5444,19 @@
         <v>19929</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11907</v>
+        <v>11370</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31750</v>
+        <v>30922</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02578123408383063</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01540408521105893</v>
+        <v>0.01470871370121016</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04107306481047023</v>
+        <v>0.04000254226671516</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>331130</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>316737</v>
+        <v>316215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>342268</v>
+        <v>342450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8867370572787076</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8481951502236268</v>
+        <v>0.8467963289861596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9165638031815502</v>
+        <v>0.9170526409890123</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>306</v>
@@ -5569,19 +5569,19 @@
         <v>323556</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>309739</v>
+        <v>310982</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>335145</v>
+        <v>335820</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8786776494036039</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8411531416733714</v>
+        <v>0.8445288984481124</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9101488050371465</v>
+        <v>0.9119826350908778</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>618</v>
@@ -5590,19 +5590,19 @@
         <v>654686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>634048</v>
+        <v>637119</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>672646</v>
+        <v>672296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8827355732314813</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8549081487233183</v>
+        <v>0.8590487254934374</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9069518943170438</v>
+        <v>0.9064799336573254</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>34414</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24172</v>
+        <v>23961</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46771</v>
+        <v>47414</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0921570768246136</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06472998984942212</v>
+        <v>0.06416482385836181</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1252489092196278</v>
+        <v>0.1269707253951201</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>38</v>
@@ -5640,19 +5640,19 @@
         <v>39479</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>28176</v>
+        <v>27385</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>51777</v>
+        <v>51579</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1072135186762427</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07651809884956676</v>
+        <v>0.07436837951618362</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1406100072134022</v>
+        <v>0.1400728134934814</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>70</v>
@@ -5661,19 +5661,19 @@
         <v>73893</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>57217</v>
+        <v>57818</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>92288</v>
+        <v>90655</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09963257785532798</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07714803569517222</v>
+        <v>0.0779574378499924</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1244347024645809</v>
+        <v>0.1222327788688828</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>7881</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3151</v>
+        <v>3424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15820</v>
+        <v>15564</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0211058658966788</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00843766526581621</v>
+        <v>0.009170330836103927</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04236498079359939</v>
+        <v>0.04167894680551113</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -5711,19 +5711,19 @@
         <v>5195</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1951</v>
+        <v>2031</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11763</v>
+        <v>11726</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01410883192015331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005299231462965632</v>
+        <v>0.005514304387017047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03194388884131093</v>
+        <v>0.03184378260056747</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -5732,19 +5732,19 @@
         <v>13077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7118</v>
+        <v>6933</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22018</v>
+        <v>22534</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01763184891319075</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00959744100604233</v>
+        <v>0.009347659418608619</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02968713216778029</v>
+        <v>0.03038294355895392</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>456846</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>439402</v>
+        <v>440084</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>471247</v>
+        <v>471188</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.875329017742429</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8419057850966339</v>
+        <v>0.8432108481800815</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9029215849890648</v>
+        <v>0.9028080693156588</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>142</v>
@@ -5857,19 +5857,19 @@
         <v>154129</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>144904</v>
+        <v>144827</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>159774</v>
+        <v>159419</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9278034578405272</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8722685411172865</v>
+        <v>0.8718086041395442</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9617825235312835</v>
+        <v>0.9596440980680041</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>580</v>
@@ -5878,19 +5878,19 @@
         <v>610975</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>592508</v>
+        <v>592266</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>626074</v>
+        <v>627449</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8879986961670235</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.861158540336046</v>
+        <v>0.8608066505066712</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.909943720478666</v>
+        <v>0.9119423628500199</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>49614</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37228</v>
+        <v>37718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>65579</v>
+        <v>63575</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09506147612228483</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07132999072763598</v>
+        <v>0.07226873895046586</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1256505391441467</v>
+        <v>0.1218113421641645</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -5928,19 +5928,19 @@
         <v>9734</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4498</v>
+        <v>4859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18295</v>
+        <v>18073</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05859321369199544</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0270772626238827</v>
+        <v>0.02924954465650391</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1101307199051701</v>
+        <v>0.1087908238689842</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -5949,19 +5949,19 @@
         <v>59348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46225</v>
+        <v>46010</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>76670</v>
+        <v>75936</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08625640537104427</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06718420974730288</v>
+        <v>0.06687185430373557</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1114328978064269</v>
+        <v>0.1103659801011011</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>15454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8729</v>
+        <v>8219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26053</v>
+        <v>24888</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02960950613528623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01672479437777471</v>
+        <v>0.01574779922765172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04991842360120795</v>
+        <v>0.0476855965774473</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8064</v>
+        <v>9354</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01360332846747731</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04854296445443299</v>
+        <v>0.0563096087949399</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -6020,19 +6020,19 @@
         <v>17713</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10535</v>
+        <v>10938</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27760</v>
+        <v>27350</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02574489846193222</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01531169470146245</v>
+        <v>0.01589678129838545</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04034727827628178</v>
+        <v>0.03975112289615117</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>988325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>963850</v>
+        <v>963330</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1009651</v>
+        <v>1010257</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8604984865205635</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8391892016042946</v>
+        <v>0.8387361333390914</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8790663750048036</v>
+        <v>0.8795938028158038</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>683</v>
@@ -6145,19 +6145,19 @@
         <v>708339</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>686946</v>
+        <v>685738</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>727034</v>
+        <v>726806</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.861164545161158</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8351558201039313</v>
+        <v>0.833688046115212</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8838936342428776</v>
+        <v>0.883616025429113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1630</v>
@@ -6166,19 +6166,19 @@
         <v>1696664</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1663628</v>
+        <v>1665981</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1723246</v>
+        <v>1725245</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8607764335730012</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8440157615489509</v>
+        <v>0.8452095918771949</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8742620541784093</v>
+        <v>0.8752762035562422</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>124689</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>106202</v>
+        <v>106001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>146765</v>
+        <v>148123</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1085624772262924</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09246659147672356</v>
+        <v>0.09229112466549763</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1277825327904405</v>
+        <v>0.128965527402828</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>78</v>
@@ -6216,19 +6216,19 @@
         <v>78717</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63332</v>
+        <v>63762</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96689</v>
+        <v>99016</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09569984680810567</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07699655936070465</v>
+        <v>0.07751829387030533</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1175497839790214</v>
+        <v>0.1203783853353076</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>199</v>
@@ -6237,19 +6237,19 @@
         <v>203406</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>179338</v>
+        <v>177249</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>233426</v>
+        <v>229010</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1031948864565999</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09098415060195371</v>
+        <v>0.08992448394499643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1184250661025763</v>
+        <v>0.1161847432630073</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>35535</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24647</v>
+        <v>25004</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49060</v>
+        <v>48023</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03093903625314412</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02145934064997559</v>
+        <v>0.02176997462866586</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0427143703314001</v>
+        <v>0.04181195721044865</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -6287,19 +6287,19 @@
         <v>35481</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24979</v>
+        <v>24875</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48448</v>
+        <v>48374</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04313560803073629</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03036805589664236</v>
+        <v>0.03024191263695169</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05890133315381123</v>
+        <v>0.05881034583552264</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>68</v>
@@ -6308,19 +6308,19 @@
         <v>71016</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54552</v>
+        <v>56888</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>88796</v>
+        <v>90512</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03602867997039903</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02767589630893219</v>
+        <v>0.02886124453329893</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04504906811600985</v>
+        <v>0.04591972692276482</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>547824</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>530397</v>
+        <v>530076</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>565011</v>
+        <v>563169</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8853980072840992</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8572324800627031</v>
+        <v>0.8567138788685734</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9131763128025083</v>
+        <v>0.9101982894385213</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>596</v>
@@ -6433,19 +6433,19 @@
         <v>629626</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>608463</v>
+        <v>608570</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>649253</v>
+        <v>647228</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8551953314808736</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8264515863876595</v>
+        <v>0.8265962247204752</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8818539787780239</v>
+        <v>0.8791045856920227</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1127</v>
@@ -6454,19 +6454,19 @@
         <v>1177450</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1151475</v>
+        <v>1151129</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1202070</v>
+        <v>1200992</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8689870673163675</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8498169147553148</v>
+        <v>0.8495614039978848</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8871572447035082</v>
+        <v>0.8863619307259193</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>61553</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46576</v>
+        <v>47201</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>77529</v>
+        <v>77543</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09948224096250331</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07527579010160454</v>
+        <v>0.07628696616046272</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1253026923762842</v>
+        <v>0.1253252732772887</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>76</v>
@@ -6504,19 +6504,19 @@
         <v>78449</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>61696</v>
+        <v>63961</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>94660</v>
+        <v>95899</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1065535816818339</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08379905126138892</v>
+        <v>0.08687625110303401</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1285726686886512</v>
+        <v>0.130255266814908</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>132</v>
@@ -6525,19 +6525,19 @@
         <v>140001</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>118408</v>
+        <v>117753</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>164487</v>
+        <v>162572</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.103324527943709</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08738796206147578</v>
+        <v>0.08690468540901332</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1213953898392639</v>
+        <v>0.1199824579399458</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>9355</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4243</v>
+        <v>4248</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17361</v>
+        <v>18305</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01511975175339745</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006857205456434574</v>
+        <v>0.006865433652507046</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02805961733244224</v>
+        <v>0.02958451724522463</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -6575,19 +6575,19 @@
         <v>28162</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18371</v>
+        <v>18563</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40496</v>
+        <v>42331</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03825108683729261</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02495327368175598</v>
+        <v>0.02521381008479138</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05500425754188491</v>
+        <v>0.05749585254036309</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -6596,19 +6596,19 @@
         <v>37517</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25911</v>
+        <v>27001</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52151</v>
+        <v>51838</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02768840473992341</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01912323765324119</v>
+        <v>0.01992757132786164</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03848890870748022</v>
+        <v>0.03825752540784224</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>257522</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>245121</v>
+        <v>245416</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>266561</v>
+        <v>266832</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.9008119525319953</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8574313939922761</v>
+        <v>0.8584630023721544</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9324306938014038</v>
+        <v>0.9333773549271647</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>853</v>
@@ -6721,19 +6721,19 @@
         <v>924901</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>899210</v>
+        <v>898122</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>946749</v>
+        <v>946377</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8583566922263641</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8345141991125873</v>
+        <v>0.8335046728290878</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8786333224091478</v>
+        <v>0.8782873881285483</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1098</v>
@@ -6742,19 +6742,19 @@
         <v>1182423</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1154128</v>
+        <v>1154955</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1208647</v>
+        <v>1207329</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8672586953118496</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8465050519348593</v>
+        <v>0.8471119777714387</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8864928111315146</v>
+        <v>0.8855263042216146</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>23817</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14906</v>
+        <v>15350</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33410</v>
+        <v>34876</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08331106519693243</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05214245995072771</v>
+        <v>0.05369267603985257</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1168680469506065</v>
+        <v>0.1219946557448652</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -6792,19 +6792,19 @@
         <v>131457</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>111259</v>
+        <v>110203</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>156957</v>
+        <v>156022</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1219990294227957</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1032546705327969</v>
+        <v>0.1022745683564668</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.14566482063312</v>
+        <v>0.1447966335632022</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -6813,19 +6813,19 @@
         <v>155274</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>132912</v>
+        <v>131350</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>182810</v>
+        <v>180607</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.113886951568827</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09748526323735272</v>
+        <v>0.09634006594133103</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1340836072137227</v>
+        <v>0.1324677026568818</v>
       </c>
     </row>
     <row r="26">
@@ -6842,19 +6842,19 @@
         <v>4539</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1084</v>
+        <v>1093</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10635</v>
+        <v>11333</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01587698227107226</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003791425890690113</v>
+        <v>0.003821830070872933</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03720052865280493</v>
+        <v>0.03964298113103923</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>19</v>
@@ -6863,19 +6863,19 @@
         <v>21167</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13440</v>
+        <v>12996</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32446</v>
+        <v>32709</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01964427835084023</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01247257284607665</v>
+        <v>0.01206062807053081</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03011174338399607</v>
+        <v>0.03035566136737336</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -6884,19 +6884,19 @@
         <v>25706</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15890</v>
+        <v>17015</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38113</v>
+        <v>38928</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01885435311932342</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01165461476019144</v>
+        <v>0.01248000606892052</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02795407959507255</v>
+        <v>0.02855188618548144</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>2960150</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2921058</v>
+        <v>2920260</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3000119</v>
+        <v>2998562</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8766907760095892</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8651131860569975</v>
+        <v>0.8648767126349655</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8885283375206924</v>
+        <v>0.8880671252419075</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2861</v>
@@ -7009,19 +7009,19 @@
         <v>3033939</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2986233</v>
+        <v>2992860</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3070768</v>
+        <v>3076199</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.8629818852481951</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8494123160232252</v>
+        <v>0.8512973714831719</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.873457701255452</v>
+        <v>0.8750025797040483</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5683</v>
@@ -7030,19 +7030,19 @@
         <v>5994089</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5935272</v>
+        <v>5933144</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6048155</v>
+        <v>6050158</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8696979493193167</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8611641150645393</v>
+        <v>0.860855343060815</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8775425797190322</v>
+        <v>0.8778332589555194</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>336980</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>301558</v>
+        <v>299960</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>372490</v>
+        <v>373288</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09980140843767722</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08931078839309985</v>
+        <v>0.08883731958482922</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1103181895743721</v>
+        <v>0.1105545735162779</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>354</v>
@@ -7080,19 +7080,19 @@
         <v>376124</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>343781</v>
+        <v>339369</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>418612</v>
+        <v>414087</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.106985662241104</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.09778589118049499</v>
+        <v>0.09653107423007151</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1190710827761631</v>
+        <v>0.1177841725876724</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>674</v>
@@ -7101,19 +7101,19 @@
         <v>713104</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>663779</v>
+        <v>663081</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>762788</v>
+        <v>768993</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1034660551710053</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09630947462100409</v>
+        <v>0.09620814485087066</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.110674868678327</v>
+        <v>0.1115752669451774</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>79374</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>63322</v>
+        <v>63349</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>97810</v>
+        <v>99319</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02350781555273358</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0187535843938804</v>
+        <v>0.01876185453844831</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02896795414162841</v>
+        <v>0.0294147436442595</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>97</v>
@@ -7151,19 +7151,19 @@
         <v>105583</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>84971</v>
+        <v>84648</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>127928</v>
+        <v>126560</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03003245251070093</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02416933364851724</v>
+        <v>0.02407746088177856</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03638819356765003</v>
+        <v>0.03599920758959109</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>171</v>
@@ -7172,19 +7172,19 @@
         <v>184958</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>156695</v>
+        <v>158637</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>214109</v>
+        <v>211814</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02683599550967802</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02273526823946597</v>
+        <v>0.02301699478263374</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03106562427500092</v>
+        <v>0.03073266349721718</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>494378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>476079</v>
+        <v>475726</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>508142</v>
+        <v>510113</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8978595678072188</v>
+        <v>0.8978595678072189</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8646275297878194</v>
+        <v>0.8639859276502336</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9228576221311702</v>
+        <v>0.9264362964304697</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>620</v>
@@ -7539,19 +7539,19 @@
         <v>442791</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>430437</v>
+        <v>430762</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>451958</v>
+        <v>453115</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.909261937330148</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8838925666168626</v>
+        <v>0.8845593372512669</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9280856677105337</v>
+        <v>0.9304607923756585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1122</v>
@@ -7560,19 +7560,19 @@
         <v>937169</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>915872</v>
+        <v>915985</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>955512</v>
+        <v>955127</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9032110817299452</v>
+        <v>0.9032110817299454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8826852540697635</v>
+        <v>0.8827944513641577</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.92088957945477</v>
+        <v>0.9205182998821521</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>45627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33559</v>
+        <v>31885</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63862</v>
+        <v>60966</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08286570049237674</v>
+        <v>0.08286570049237675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06094872558127389</v>
+        <v>0.05790796636584576</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1159831572001491</v>
+        <v>0.1107226420459444</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -7610,19 +7610,19 @@
         <v>32830</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25163</v>
+        <v>24591</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43840</v>
+        <v>43617</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06741565193551344</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05167247965942804</v>
+        <v>0.0504976061423058</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09002450134823668</v>
+        <v>0.08956726636183193</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -7631,19 +7631,19 @@
         <v>78457</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62273</v>
+        <v>62558</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98138</v>
+        <v>97900</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07561447522796243</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06001665071369787</v>
+        <v>0.06029077720248989</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09458224687431151</v>
+        <v>0.09435292613499706</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>10613</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5085</v>
+        <v>5132</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21571</v>
+        <v>22028</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.01927473170040444</v>
+        <v>0.01927473170040445</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009235823882042584</v>
+        <v>0.009320733421470528</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03917547653352425</v>
+        <v>0.04000599188372637</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -7681,19 +7681,19 @@
         <v>11358</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6953</v>
+        <v>6718</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18301</v>
+        <v>18367</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0233224107343385</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01427833402810897</v>
+        <v>0.01379522893575487</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03758099697423847</v>
+        <v>0.03771684508181705</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>25</v>
@@ -7702,19 +7702,19 @@
         <v>21971</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14566</v>
+        <v>14306</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33853</v>
+        <v>33683</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0211744430420924</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01403779674586786</v>
+        <v>0.01378805709646814</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03262620949429781</v>
+        <v>0.03246229910138295</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>456756</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>445315</v>
+        <v>445559</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>465686</v>
+        <v>465929</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.945249519259538</v>
+        <v>0.9452495192595379</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9215722170106694</v>
+        <v>0.9220785777230792</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9637294954518805</v>
+        <v>0.964233832154873</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>529</v>
@@ -7827,19 +7827,19 @@
         <v>379618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>366218</v>
+        <v>368518</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>389286</v>
+        <v>389489</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8981055552094248</v>
+        <v>0.8981055552094246</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8664055019525001</v>
+        <v>0.8718459429661704</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9209798189057965</v>
+        <v>0.9214604820264594</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>983</v>
@@ -7848,19 +7848,19 @@
         <v>836373</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>820338</v>
+        <v>818977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>849848</v>
+        <v>851035</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9232524265415853</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9055515055008391</v>
+        <v>0.9040489784190161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9381265372058015</v>
+        <v>0.9394369985185614</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>22542</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14257</v>
+        <v>14709</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33001</v>
+        <v>33711</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04664944171993966</v>
+        <v>0.04664944171993965</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02950546803482329</v>
+        <v>0.03043951088200966</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06829487770650108</v>
+        <v>0.06976359189412536</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>50</v>
@@ -7898,19 +7898,19 @@
         <v>35887</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26696</v>
+        <v>26570</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48468</v>
+        <v>46207</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08490247501001699</v>
+        <v>0.08490247501001698</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06315701658042372</v>
+        <v>0.06286003282911998</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1146668386999849</v>
+        <v>0.1093174719446834</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>73</v>
@@ -7919,19 +7919,19 @@
         <v>58429</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>45614</v>
+        <v>45100</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>73016</v>
+        <v>74774</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.06449807912196857</v>
+        <v>0.06449807912196859</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05035271904742464</v>
+        <v>0.04978444430887431</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08060095645785711</v>
+        <v>0.0825409632291097</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>3915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9928</v>
+        <v>10751</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008101039020522435</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002392633520291576</v>
+        <v>0.002430440362015381</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02054630131071055</v>
+        <v>0.02224898164830456</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -7969,19 +7969,19 @@
         <v>7182</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3675</v>
+        <v>3430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13595</v>
+        <v>13048</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01699196978055832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00869368797142338</v>
+        <v>0.008115314937282158</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03216426371636912</v>
+        <v>0.03086963115584795</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -7990,19 +7990,19 @@
         <v>11097</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5733</v>
+        <v>6395</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17632</v>
+        <v>18865</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01224949433644609</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006328074797452491</v>
+        <v>0.007059300204408502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01946349435881586</v>
+        <v>0.02082417869292365</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>416531</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>400994</v>
+        <v>399623</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>429809</v>
+        <v>429945</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8854339444506385</v>
+        <v>0.8854339444506386</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8524071188584523</v>
+        <v>0.8494908999122123</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.913659066794706</v>
+        <v>0.9139479419823709</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>259</v>
@@ -8115,19 +8115,19 @@
         <v>164255</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>153774</v>
+        <v>153325</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>172041</v>
+        <v>171492</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8760401557053521</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8201418212576764</v>
+        <v>0.8177459828105293</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9175674158226127</v>
+        <v>0.914639556697717</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>698</v>
@@ -8136,19 +8136,19 @@
         <v>580786</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>562228</v>
+        <v>560641</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>597183</v>
+        <v>595815</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8827568691700185</v>
+        <v>0.8827568691700187</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8545490964919997</v>
+        <v>0.8521383886724366</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9076790735581267</v>
+        <v>0.9055998116039213</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>42419</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30567</v>
+        <v>30666</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56895</v>
+        <v>58565</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09017063984020504</v>
+        <v>0.09017063984020506</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06497820951785661</v>
+        <v>0.06518797256042748</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1209441003763881</v>
+        <v>0.1244936663473521</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -8186,19 +8186,19 @@
         <v>19727</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13256</v>
+        <v>12889</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30665</v>
+        <v>30035</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.105214508656244</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07070040450751808</v>
+        <v>0.06874300075056605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1635470244676649</v>
+        <v>0.1601884728980985</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -8207,19 +8207,19 @@
         <v>62146</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46390</v>
+        <v>48373</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>79472</v>
+        <v>80873</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0944578950068188</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07050918587960948</v>
+        <v>0.07352396220944699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1207921958754389</v>
+        <v>0.1229209703586208</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>11476</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5596</v>
+        <v>5871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21212</v>
+        <v>22994</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02439541570915647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0118952397263748</v>
+        <v>0.01248011257213418</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04509003212040862</v>
+        <v>0.04887992961648417</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -8257,19 +8257,19 @@
         <v>3515</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1250</v>
+        <v>1394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7106</v>
+        <v>7238</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.0187453356384038</v>
+        <v>0.01874533563840379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006666611408517284</v>
+        <v>0.007435680501804378</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03790064166971335</v>
+        <v>0.0386040125806343</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -8278,19 +8278,19 @@
         <v>14991</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8642</v>
+        <v>7931</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26636</v>
+        <v>25161</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02278523582316264</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01313566099732235</v>
+        <v>0.01205444370375763</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04048443614331186</v>
+        <v>0.03824262494655426</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>1043505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1022551</v>
+        <v>1024696</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1060714</v>
+        <v>1061604</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.9237507746585355</v>
+        <v>0.9237507746585354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.905201455366389</v>
+        <v>0.9071002225858193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9389850721663977</v>
+        <v>0.9397727680427733</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1104</v>
@@ -8403,19 +8403,19 @@
         <v>769610</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>753208</v>
+        <v>752766</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>785470</v>
+        <v>784724</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8936366613690205</v>
+        <v>0.8936366613690208</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8745920620325901</v>
+        <v>0.8740788035082729</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9120524454828008</v>
+        <v>0.9111863977414781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2135</v>
@@ -8424,19 +8424,19 @@
         <v>1813116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1787036</v>
+        <v>1786956</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1836420</v>
+        <v>1837181</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9107238712702093</v>
+        <v>0.9107238712702095</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8976243129256058</v>
+        <v>0.8975838494478355</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.922429753676725</v>
+        <v>0.9228117322652708</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>66380</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51465</v>
+        <v>49987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83998</v>
+        <v>85354</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05876221038759905</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04555838872184394</v>
+        <v>0.04425057819315329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07435859716287579</v>
+        <v>0.07555901498539055</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>92</v>
@@ -8474,19 +8474,19 @@
         <v>66896</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53262</v>
+        <v>54122</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>80770</v>
+        <v>83356</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07767699342393351</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06184579839499607</v>
+        <v>0.06284351243838232</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09378692745243417</v>
+        <v>0.09678926475633567</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>158</v>
@@ -8495,19 +8495,19 @@
         <v>133276</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113636</v>
+        <v>112923</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>155449</v>
+        <v>156152</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.06694445533224004</v>
+        <v>0.06694445533224007</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0570792248508541</v>
+        <v>0.05672097837616775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07808184682860367</v>
+        <v>0.07843478073773537</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>19754</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12284</v>
+        <v>12160</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31028</v>
+        <v>29198</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01748701495386542</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01087449996315797</v>
+        <v>0.01076436143908967</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02746682891724887</v>
+        <v>0.02584741910755507</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>34</v>
@@ -8545,19 +8545,19 @@
         <v>24705</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17079</v>
+        <v>17505</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33814</v>
+        <v>34314</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02868634520704592</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01983169749160639</v>
+        <v>0.02032613193579003</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03926284963433559</v>
+        <v>0.03984397687650187</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>53</v>
@@ -8566,19 +8566,19 @@
         <v>44459</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>33244</v>
+        <v>34347</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>57869</v>
+        <v>57718</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02233167339755061</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01669832593638849</v>
+        <v>0.01725227798387519</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02906734889956525</v>
+        <v>0.02899159824338726</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>510398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>492241</v>
+        <v>493315</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>523958</v>
+        <v>524741</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8986457192938001</v>
+        <v>0.8986457192937999</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8666768747147523</v>
+        <v>0.8685674980606355</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9225202974021587</v>
+        <v>0.9238987642025503</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1138</v>
@@ -8691,19 +8691,19 @@
         <v>727972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>711899</v>
+        <v>711180</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>743119</v>
+        <v>740925</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8776206257901731</v>
+        <v>0.877620625790173</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8582433907970263</v>
+        <v>0.8573759455641237</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8958815504211215</v>
+        <v>0.8932364436662802</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1627</v>
@@ -8712,19 +8712,19 @@
         <v>1238371</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1216461</v>
+        <v>1215637</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1260218</v>
+        <v>1258657</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8861658371051674</v>
+        <v>0.8861658371051672</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8704874951205729</v>
+        <v>0.8698979691062468</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.901799482448167</v>
+        <v>0.9006825286065653</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>40618</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29564</v>
+        <v>28944</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>55206</v>
+        <v>54070</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.07151517607588614</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05205293654435705</v>
+        <v>0.0509611699445718</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09719988901870424</v>
+        <v>0.09519985179462653</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>121</v>
@@ -8762,19 +8762,19 @@
         <v>81540</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>68073</v>
+        <v>68889</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>96906</v>
+        <v>96460</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.09830160993610053</v>
+        <v>0.09830160993610054</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08206666310422286</v>
+        <v>0.08305073581253787</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1168264564965917</v>
+        <v>0.1162891611271496</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>162</v>
@@ -8783,19 +8783,19 @@
         <v>122158</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>102287</v>
+        <v>103464</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>142228</v>
+        <v>142222</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08741482183828957</v>
+        <v>0.08741482183828955</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07319526352464661</v>
+        <v>0.07403802578107765</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1017768932088108</v>
+        <v>0.1017729688031936</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>16948</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10416</v>
+        <v>10555</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28059</v>
+        <v>27317</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02983910463031377</v>
+        <v>0.02983910463031376</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01833875991212346</v>
+        <v>0.01858420869332758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0494032988258739</v>
+        <v>0.04809722654041212</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -8833,19 +8833,19 @@
         <v>19972</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13781</v>
+        <v>13181</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28479</v>
+        <v>27744</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02407776427372641</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01661402805706716</v>
+        <v>0.01589066181119054</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03433306188161435</v>
+        <v>0.03344700216976852</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -8854,19 +8854,19 @@
         <v>36920</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27372</v>
+        <v>26690</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48907</v>
+        <v>48058</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02641934105654313</v>
+        <v>0.02641934105654312</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01958700826797915</v>
+        <v>0.01909926981759232</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03499702785397008</v>
+        <v>0.03438980471621528</v>
       </c>
     </row>
     <row r="23">
@@ -8958,19 +8958,19 @@
         <v>212136</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>195377</v>
+        <v>192877</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>224139</v>
+        <v>224258</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8942285755245529</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.8235835949221331</v>
+        <v>0.8130452873812742</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9448237178410306</v>
+        <v>0.9453260003963782</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1076</v>
@@ -8979,19 +8979,19 @@
         <v>776833</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>757925</v>
+        <v>756514</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>792141</v>
+        <v>792053</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9205825456230897</v>
+        <v>0.9205825456230896</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.8981760230129896</v>
+        <v>0.8965035296255234</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9387231205606257</v>
+        <v>0.9386189675813414</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1176</v>
@@ -9000,19 +9000,19 @@
         <v>988968</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>963543</v>
+        <v>964829</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1008278</v>
+        <v>1008088</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.9147995201286175</v>
+        <v>0.9147995201286176</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8912812454998753</v>
+        <v>0.8924708554415087</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.9326613786186541</v>
+        <v>0.9324858896727051</v>
       </c>
     </row>
     <row r="25">
@@ -9029,19 +9029,19 @@
         <v>17694</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7755</v>
+        <v>7263</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35486</v>
+        <v>35006</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07458682245398611</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03269114088289699</v>
+        <v>0.03061554019743002</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1495853586622443</v>
+        <v>0.1475605913455764</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>67</v>
@@ -9050,19 +9050,19 @@
         <v>54432</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>42005</v>
+        <v>40647</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>72812</v>
+        <v>73263</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0645042028448255</v>
+        <v>0.06450420284482548</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04977820591638456</v>
+        <v>0.04816811860434773</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08628515136309094</v>
+        <v>0.08681955114937841</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -9071,19 +9071,19 @@
         <v>72126</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>54552</v>
+        <v>55116</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95855</v>
+        <v>93560</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06671669857252144</v>
+        <v>0.06671669857252145</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05046061336365214</v>
+        <v>0.05098296852989836</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08866667720553822</v>
+        <v>0.08654294466600088</v>
       </c>
     </row>
     <row r="26">
@@ -9100,19 +9100,19 @@
         <v>7398</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2255</v>
+        <v>2310</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21103</v>
+        <v>21552</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03118460202146086</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009506817362356512</v>
+        <v>0.009736327085961486</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08895551267885289</v>
+        <v>0.09084870420409034</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>15</v>
@@ -9121,19 +9121,19 @@
         <v>12585</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7117</v>
+        <v>6852</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23800</v>
+        <v>23831</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.01491325153208494</v>
+        <v>0.01491325153208493</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008433539319166634</v>
+        <v>0.008119486885972952</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02820404683779946</v>
+        <v>0.02824140647798577</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>19</v>
@@ -9142,19 +9142,19 @@
         <v>19982</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11160</v>
+        <v>11512</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>33785</v>
+        <v>34146</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01848378129886096</v>
+        <v>0.01848378129886097</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01032268364261836</v>
+        <v>0.01064902497344982</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03125096307075899</v>
+        <v>0.03158525319010475</v>
       </c>
     </row>
     <row r="27">
@@ -9246,19 +9246,19 @@
         <v>3133703</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3092455</v>
+        <v>3095150</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3166797</v>
+        <v>3169260</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9112023309713204</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8992082611696099</v>
+        <v>0.8999920617989593</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9208251727843835</v>
+        <v>0.9215412335871472</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4726</v>
@@ -9267,19 +9267,19 @@
         <v>3261079</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3226393</v>
+        <v>3224624</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3292470</v>
+        <v>3292139</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.8979464868492878</v>
+        <v>0.8979464868492879</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.8883956131778816</v>
+        <v>0.887908340256255</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9065899378319184</v>
+        <v>0.9064988473961473</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7741</v>
@@ -9288,19 +9288,19 @@
         <v>6394783</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6335939</v>
+        <v>6344709</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6438898</v>
+        <v>6439252</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.9043938520836713</v>
+        <v>0.9043938520836712</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8960717816316718</v>
+        <v>0.8973121681182242</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9106329634185136</v>
+        <v>0.910683026575036</v>
       </c>
     </row>
     <row r="29">
@@ -9317,19 +9317,19 @@
         <v>235280</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>206202</v>
+        <v>204380</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>272940</v>
+        <v>272545</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06841342904737668</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05995845839420134</v>
+        <v>0.0594286352771683</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07936418806063715</v>
+        <v>0.0792493434335126</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>402</v>
@@ -9338,19 +9338,19 @@
         <v>291312</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>263974</v>
+        <v>264354</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>323540</v>
+        <v>325961</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08021360212419569</v>
+        <v>0.08021360212419566</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07268602986652806</v>
+        <v>0.07279051623544118</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08908744736408519</v>
+        <v>0.08975430585286225</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>621</v>
@@ -9359,19 +9359,19 @@
         <v>526592</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>484733</v>
+        <v>488239</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>578125</v>
+        <v>571627</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.07447424482979767</v>
+        <v>0.07447424482979766</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06855420064873326</v>
+        <v>0.06905011393894234</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0817624261317963</v>
+        <v>0.08084334616525909</v>
       </c>
     </row>
     <row r="30">
@@ -9388,19 +9388,19 @@
         <v>70103</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>54252</v>
+        <v>53311</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>90572</v>
+        <v>90415</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02038423998130305</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01577508585015741</v>
+        <v>0.01550157384577146</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0263360658364567</v>
+        <v>0.0262905358567267</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>110</v>
@@ -9409,19 +9409,19 @@
         <v>79316</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>65961</v>
+        <v>65021</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>96349</v>
+        <v>94793</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02183991102651654</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01816265482925674</v>
+        <v>0.01790370604857309</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02653002796936876</v>
+        <v>0.02610144851135264</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>173</v>
@@ -9430,19 +9430,19 @@
         <v>149419</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>128314</v>
+        <v>127291</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>175341</v>
+        <v>177209</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02113190308653112</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01814700482990812</v>
+        <v>0.0180023598474678</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0247978549510916</v>
+        <v>0.02506210999937769</v>
       </c>
     </row>
     <row r="31">
